--- a/Test Plan/Peer Review Log.xlsx
+++ b/Test Plan/Peer Review Log.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ECAFF95-7230-4AF2-B172-5AE65DDD4E2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="210" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -41,12 +42,24 @@
   </si>
   <si>
     <t>User's Guide Peer Review</t>
+  </si>
+  <si>
+    <t>B. Allton</t>
+  </si>
+  <si>
+    <t>Check for content accuracy</t>
+  </si>
+  <si>
+    <t>Changed requirement to Win 8.1 or higher</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Listing  Windows 7 use under System Requirements, this OS is no longer supported by Microsoft</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -150,16 +163,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -167,6 +174,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,11 +471,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="A1:E15"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,35 +488,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -503,11 +528,11 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -517,11 +542,11 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -531,11 +556,11 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -545,11 +570,11 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -559,11 +584,11 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -573,11 +598,11 @@
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -589,11 +614,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,121 +631,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="9">
+        <v>43862</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
